--- a/Data/Name Book.xlsx
+++ b/Data/Name Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alyza\Projectz\RPA\RPA Nationality API\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D13262-D155-4009-9BF9-83C25DFA145A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0315AA7-B99E-4312-A575-FF3F4AE96601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AD8503D2-709A-4769-9D2E-2CDA04DE72BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Pimchanok</t>
   </si>
   <si>
-    <t>Soohyuk</t>
-  </si>
-  <si>
     <t>Kwong</t>
   </si>
   <si>
@@ -78,6 +75,60 @@
   </si>
   <si>
     <t>Smith</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>JM</t>
   </si>
 </sst>
 </file>
@@ -512,7 +563,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,78 +598,162 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.65246074239394103</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.4471059686400101E-3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6.9044722894744601E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.61727555181036498</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.2287434443031499E-2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.58763910885982E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.52271219397908297</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.6445761102455501E-2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.1798781016200301E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.511905825052546</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.6821068099262397E-2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.3809548507596898E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.12284491067595101</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.80525791746683E-2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8.5720623601626994E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.29459546763532801</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.5164696570539899E-2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.9912934324786403E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.21347775383491099</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.3318437170378503E-2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6.7113294874836693E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
